--- a/src/main/java/Java.xlsx
+++ b/src/main/java/Java.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\OneDrive\Documenti\Alessandro\Universität\WS 2019-2020\Projektstudium Porsche Consulting\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\eclipse-workspace\Porsche\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9121F467-67D1-4B0A-89D2-0BB046684B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D575FA42-85F2-48BA-9607-74557FD25415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2038,9 +2038,6 @@
     <t>95B864483J 1E0</t>
   </si>
   <si>
-    <t>150-050</t>
-  </si>
-  <si>
     <t>138-035</t>
   </si>
   <si>
@@ -2057,6 +2054,9 @@
   </si>
   <si>
     <t>70S/72S</t>
+  </si>
+  <si>
+    <t>150-052</t>
   </si>
 </sst>
 </file>
@@ -2497,8 +2497,8 @@
   <dimension ref="A1:R349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B271" sqref="B271"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F349" sqref="F349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5534,7 +5534,7 @@
         <v>18</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>34</v>
@@ -7002,7 +7002,7 @@
         <v>18</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>34</v>
@@ -8474,7 +8474,7 @@
         <v>18</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>34</v>
@@ -9655,7 +9655,7 @@
         <v>18</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>34</v>
@@ -12479,7 +12479,7 @@
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G204" s="15" t="s">
         <v>36</v>
@@ -14231,7 +14231,7 @@
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
       <c r="F243" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G243" s="15" t="s">
         <v>36</v>
@@ -15551,7 +15551,7 @@
         <v>18</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C271" s="15" t="s">
         <v>34</v>
@@ -18147,7 +18147,7 @@
         <v>18</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C320" s="15" t="s">
         <v>34</v>
@@ -19551,7 +19551,7 @@
         <v>667</v>
       </c>
       <c r="F347" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="G347" t="s">
         <v>27</v>
@@ -19607,7 +19607,7 @@
         <v>667</v>
       </c>
       <c r="F348" s="15" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="G348" s="15" t="s">
         <v>27</v>
@@ -19659,7 +19659,7 @@
       <c r="D349" s="15"/>
       <c r="E349" s="15"/>
       <c r="F349" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G349" s="15" t="s">
         <v>508</v>

--- a/src/main/java/Java.xlsx
+++ b/src/main/java/Java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\eclipse-workspace\Porsche\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D575FA42-85F2-48BA-9607-74557FD25415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE20FB6-54F5-4583-A8ED-86BB6CDEDCBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="679">
   <si>
     <t>Station</t>
   </si>
@@ -2057,6 +2057,15 @@
   </si>
   <si>
     <t>150-052</t>
+  </si>
+  <si>
+    <t>Ciao</t>
+  </si>
+  <si>
+    <t>123-456</t>
+  </si>
+  <si>
+    <t>Ciaoo</t>
   </si>
 </sst>
 </file>
@@ -2494,11 +2503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5737D4-19C8-4527-AC9D-3D814094C0CA}">
-  <dimension ref="A1:R349"/>
+  <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F349" sqref="F349"/>
+      <selection pane="bottomLeft" activeCell="E354" sqref="E354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19678,6 +19687,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="350" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350" t="s">
+        <v>676</v>
+      </c>
+      <c r="F350" t="s">
+        <v>677</v>
+      </c>
+      <c r="G350" t="s">
+        <v>678</v>
+      </c>
+      <c r="R350" s="16">
+        <v>22222</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R3167" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/src/main/java/Java.xlsx
+++ b/src/main/java/Java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\eclipse-workspace\Porsche\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE20FB6-54F5-4583-A8ED-86BB6CDEDCBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB434B8-E5AF-44E2-993F-AF59FCD2296B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="676">
   <si>
     <t>Station</t>
   </si>
@@ -2057,15 +2057,6 @@
   </si>
   <si>
     <t>150-052</t>
-  </si>
-  <si>
-    <t>Ciao</t>
-  </si>
-  <si>
-    <t>123-456</t>
-  </si>
-  <si>
-    <t>Ciaoo</t>
   </si>
 </sst>
 </file>
@@ -2507,7 +2498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E354" sqref="E354"/>
+      <selection pane="bottomLeft" activeCell="F350" sqref="F350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19688,24 +19679,39 @@
       </c>
     </row>
     <row r="350" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>18</v>
-      </c>
-      <c r="B350" t="s">
-        <v>676</v>
-      </c>
-      <c r="F350" t="s">
-        <v>677</v>
-      </c>
-      <c r="G350" t="s">
-        <v>678</v>
-      </c>
-      <c r="R350" s="16">
-        <v>22222</v>
+      <c r="A350" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="C350" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D350" s="15"/>
+      <c r="E350" s="15"/>
+      <c r="F350" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="G350" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="H350" s="15"/>
+      <c r="I350" s="15"/>
+      <c r="J350" s="15"/>
+      <c r="K350" s="15"/>
+      <c r="L350" s="15"/>
+      <c r="M350" s="15"/>
+      <c r="N350" s="15"/>
+      <c r="O350" s="15"/>
+      <c r="P350" s="15"/>
+      <c r="Q350" s="15"/>
+      <c r="R350" s="14">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R3167" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:R3166" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/Java.xlsx
+++ b/src/main/java/Java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\eclipse-workspace\Porsche\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB434B8-E5AF-44E2-993F-AF59FCD2296B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6A3679-8BBF-4E41-8120-DD51F62B1875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2498,7 +2498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F350" sqref="F350"/>
+      <selection pane="bottomLeft" activeCell="A350" sqref="A350:XFD350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19711,7 +19711,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R3166" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:R3165" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>